--- a/data/published/2017_Wilson_SealeCarlisle_Mickes/testOutput.xlsx
+++ b/data/published/2017_Wilson_SealeCarlisle_Mickes/testOutput.xlsx
@@ -1022,6 +1022,9 @@
       <c r="L10" t="n">
         <v>0</v>
       </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1062,6 +1065,9 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1102,6 +1108,9 @@
       <c r="L12" t="n">
         <v>1.561500783294528</v>
       </c>
+      <c r="M12" t="n">
+        <v>1.599010835788729</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1142,6 +1151,9 @@
       <c r="L13" t="n">
         <v>1</v>
       </c>
+      <c r="M13" t="n">
+        <v>1.867602372421194</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1182,6 +1194,9 @@
       <c r="L14" t="n">
         <v>0.1</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.1089258663148072</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1222,6 +1237,9 @@
       <c r="L15" t="n">
         <v>0.1</v>
       </c>
+      <c r="M15" t="n">
+        <v>0.1089258663148072</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1262,6 +1280,9 @@
       <c r="L16" t="n">
         <v>-0.4280363560196691</v>
       </c>
+      <c r="M16" t="n">
+        <v>-0.5644239985121433</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1302,6 +1323,9 @@
       <c r="L17" t="n">
         <v>-0.3620725360445805</v>
       </c>
+      <c r="M17" t="n">
+        <v>-0.4897236696437828</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1342,6 +1366,9 @@
       <c r="L18" t="n">
         <v>0.001207971587382084</v>
       </c>
+      <c r="M18" t="n">
+        <v>-0.1267622895930164</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1382,6 +1409,9 @@
       <c r="L19" t="n">
         <v>0.5629957356598114</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.4694112163037319</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1422,6 +1452,9 @@
       <c r="L20" t="n">
         <v>1.461268567554308</v>
       </c>
+      <c r="M20" t="n">
+        <v>1.501986768452354</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1462,6 +1495,9 @@
       <c r="L21" t="n">
         <v>2.92992369871063</v>
       </c>
+      <c r="M21" t="n">
+        <v>3.195929884545159</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1502,6 +1538,9 @@
       <c r="L22" t="n">
         <v>4.795912817007508</v>
       </c>
+      <c r="M22" t="n">
+        <v>5.300876449441576</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1598,6 +1637,9 @@
       <c r="L31" t="n">
         <v>921</v>
       </c>
+      <c r="M31" t="n">
+        <v>1332</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1606,37 +1648,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>158.988017307</v>
+        <v>142.411498525</v>
       </c>
       <c r="C32" t="n">
-        <v>170.3149544020001</v>
+        <v>165.405489986</v>
       </c>
       <c r="D32" t="n">
-        <v>264.087887328</v>
+        <v>320.731378723</v>
       </c>
       <c r="E32" t="n">
-        <v>378.739803034</v>
+        <v>412.078537679</v>
       </c>
       <c r="F32" t="n">
-        <v>341.1997074009998</v>
+        <v>372.764652863</v>
       </c>
       <c r="G32" t="n">
-        <v>502.2278228379998</v>
+        <v>537.0577738120003</v>
       </c>
       <c r="H32" t="n">
-        <v>130.760283696</v>
+        <v>140.5549942789999</v>
       </c>
       <c r="I32" t="n">
-        <v>167.1025676029999</v>
+        <v>165.882651681</v>
       </c>
       <c r="J32" t="n">
-        <v>199.3437132569998</v>
+        <v>198.7476384279998</v>
       </c>
       <c r="K32" t="n">
-        <v>322.3776862530003</v>
+        <v>340.2911852359998</v>
       </c>
       <c r="L32" t="n">
-        <v>451.7651317049999</v>
+        <v>450.5572329670003</v>
+      </c>
+      <c r="M32" t="n">
+        <v>687.9630750230003</v>
       </c>
     </row>
     <row r="33">
@@ -1678,6 +1723,9 @@
       <c r="L33" t="n">
         <v>28.60809714251576</v>
       </c>
+      <c r="M33" t="n">
+        <v>15.56086746147615</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1718,6 +1766,9 @@
       <c r="L34" t="n">
         <v>13</v>
       </c>
+      <c r="M34" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1758,6 +1809,9 @@
       <c r="L35" t="n">
         <v>2.200622857116597</v>
       </c>
+      <c r="M35" t="n">
+        <v>1.41462431467965</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
@@ -1805,6 +1859,9 @@
       <c r="L37" t="n">
         <v>358</v>
       </c>
+      <c r="M37" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1845,6 +1902,9 @@
       <c r="L38" t="n">
         <v>168</v>
       </c>
+      <c r="M38" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1885,6 +1945,9 @@
       <c r="L39" t="n">
         <v>190</v>
       </c>
+      <c r="M39" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1925,6 +1988,9 @@
       <c r="L40" t="n">
         <v>0.5157894736842106</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.5157894736842106</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1965,6 +2031,9 @@
       <c r="L41" t="n">
         <v>0.09027777777777778</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.09027777777777778</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2005,6 +2074,9 @@
       <c r="L42" t="n">
         <v>1.378635118101287</v>
       </c>
+      <c r="M42" t="n">
+        <v>1.378635118101287</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2043,6 +2115,9 @@
         <v>0.03100939878312998</v>
       </c>
       <c r="L43" t="n">
+        <v>0.03100939878312998</v>
+      </c>
+      <c r="M43" t="n">
         <v>0.03100939878312998</v>
       </c>
     </row>
